--- a/data/IEEE_9/ieee18/ieee18_2030.xlsx
+++ b/data/IEEE_9/ieee18/ieee18_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A030591A-8C04-4B3F-AF71-70762AC22123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F668C59-D415-44E4-BEB2-037EEE25DB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16875" yWindow="7650" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -21241,7 +21241,7 @@
       </c>
       <c r="D3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>1.5680716832769496E-5</v>
+        <v>1.5680716832769495E-4</v>
       </c>
       <c r="E3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21261,55 +21261,55 @@
       </c>
       <c r="I3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>9.5351558928408135E-3</v>
+        <v>9.5351558928408131E-2</v>
       </c>
       <c r="J3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0.18890239553808172</v>
+        <v>1.8890239553808172</v>
       </c>
       <c r="K3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0.49290093261406231</v>
+        <v>4.9290093261406227</v>
       </c>
       <c r="L3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0.61511611959403845</v>
+        <v>6.151161195940384</v>
       </c>
       <c r="M3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0.68321139252080076</v>
+        <v>6.8321139252080076</v>
       </c>
       <c r="N3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0.69588141172167872</v>
+        <v>6.9588141172167877</v>
       </c>
       <c r="O3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0.68310322757611763</v>
+        <v>6.8310322757611761</v>
       </c>
       <c r="P3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0.58327338392612227</v>
+        <v>5.8327338392612225</v>
       </c>
       <c r="Q3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0.38544322026149763</v>
+        <v>3.8544322026149764</v>
       </c>
       <c r="R3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>9.4168304836792532E-2</v>
+        <v>0.94168304836792527</v>
       </c>
       <c r="S3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>7.3603364725244585E-4</v>
+        <v>7.3603364725244582E-3</v>
       </c>
       <c r="T3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>6.3362896589558382E-5</v>
+        <v>6.336289658955838E-4</v>
       </c>
       <c r="U3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>4.8482216329889367E-5</v>
+        <v>4.8482216329889365E-4</v>
       </c>
       <c r="V3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -21342,7 +21342,7 @@
       </c>
       <c r="D4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>1.5680716832769496E-5</v>
+        <v>1.5680716832769495E-4</v>
       </c>
       <c r="E4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21362,55 +21362,55 @@
       </c>
       <c r="I4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>9.5351558928408135E-3</v>
+        <v>9.5351558928408131E-2</v>
       </c>
       <c r="J4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0.18890239553808172</v>
+        <v>1.8890239553808172</v>
       </c>
       <c r="K4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0.49290093261406231</v>
+        <v>4.9290093261406227</v>
       </c>
       <c r="L4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0.61511611959403845</v>
+        <v>6.151161195940384</v>
       </c>
       <c r="M4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0.68321139252080076</v>
+        <v>6.8321139252080076</v>
       </c>
       <c r="N4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0.69588141172167872</v>
+        <v>6.9588141172167877</v>
       </c>
       <c r="O4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0.68310322757611763</v>
+        <v>6.8310322757611761</v>
       </c>
       <c r="P4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0.58327338392612227</v>
+        <v>5.8327338392612225</v>
       </c>
       <c r="Q4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0.38544322026149763</v>
+        <v>3.8544322026149764</v>
       </c>
       <c r="R4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>9.4168304836792532E-2</v>
+        <v>0.94168304836792527</v>
       </c>
       <c r="S4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>7.3603364725244585E-4</v>
+        <v>7.3603364725244582E-3</v>
       </c>
       <c r="T4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>6.3362896589558382E-5</v>
+        <v>6.336289658955838E-4</v>
       </c>
       <c r="U4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>4.8482216329889367E-5</v>
+        <v>4.8482216329889365E-4</v>
       </c>
       <c r="V4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -21443,7 +21443,7 @@
       </c>
       <c r="D5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>1.5680716832769496E-5</v>
+        <v>1.5680716832769495E-4</v>
       </c>
       <c r="E5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21463,55 +21463,55 @@
       </c>
       <c r="I5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>9.5351558928408135E-3</v>
+        <v>9.5351558928408131E-2</v>
       </c>
       <c r="J5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0.18890239553808172</v>
+        <v>1.8890239553808172</v>
       </c>
       <c r="K5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0.49290093261406231</v>
+        <v>4.9290093261406227</v>
       </c>
       <c r="L5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0.61511611959403845</v>
+        <v>6.151161195940384</v>
       </c>
       <c r="M5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0.68321139252080076</v>
+        <v>6.8321139252080076</v>
       </c>
       <c r="N5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0.69588141172167872</v>
+        <v>6.9588141172167877</v>
       </c>
       <c r="O5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0.68310322757611763</v>
+        <v>6.8310322757611761</v>
       </c>
       <c r="P5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0.58327338392612227</v>
+        <v>5.8327338392612225</v>
       </c>
       <c r="Q5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0.38544322026149763</v>
+        <v>3.8544322026149764</v>
       </c>
       <c r="R5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>9.4168304836792532E-2</v>
+        <v>0.94168304836792527</v>
       </c>
       <c r="S5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>7.3603364725244585E-4</v>
+        <v>7.3603364725244582E-3</v>
       </c>
       <c r="T5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>6.3362896589558382E-5</v>
+        <v>6.336289658955838E-4</v>
       </c>
       <c r="U5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>4.8482216329889367E-5</v>
+        <v>4.8482216329889365E-4</v>
       </c>
       <c r="V5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -21544,7 +21544,7 @@
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>7.8403584163847477E-5</v>
+        <v>4.7042150498308486E-4</v>
       </c>
       <c r="E6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21564,55 +21564,55 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>4.7675779464204066E-2</v>
+        <v>0.28605467678522439</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0.94451197769040862</v>
+        <v>5.667071866142452</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>2.4645046630703114</v>
+        <v>14.78702797842187</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>3.075580597970192</v>
+        <v>18.453483587821154</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>3.4160569626040038</v>
+        <v>20.496341775624025</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>3.4794070586083938</v>
+        <v>20.876442351650361</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>3.4155161378805881</v>
+        <v>20.49309682728353</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>2.9163669196306112</v>
+        <v>17.498201517783667</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>1.9272161013074882</v>
+        <v>11.563296607844929</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0.47084152418396263</v>
+        <v>2.825049145103776</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>3.6801682362622291E-3</v>
+        <v>2.2081009417573374E-2</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>3.168144829477919E-4</v>
+        <v>1.9008868976867514E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>2.4241108164944683E-4</v>
+        <v>1.4544664898966809E-3</v>
       </c>
       <c r="V6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -21645,7 +21645,7 @@
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>7.8403584163847477E-5</v>
+        <v>4.7042150498308486E-4</v>
       </c>
       <c r="E7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21665,55 +21665,55 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>4.7675779464204066E-2</v>
+        <v>0.28605467678522439</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0.94451197769040862</v>
+        <v>5.667071866142452</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>2.4645046630703114</v>
+        <v>14.78702797842187</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>3.075580597970192</v>
+        <v>18.453483587821154</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>3.4160569626040038</v>
+        <v>20.496341775624025</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>3.4794070586083938</v>
+        <v>20.876442351650361</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>3.4155161378805881</v>
+        <v>20.49309682728353</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>2.9163669196306112</v>
+        <v>17.498201517783667</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>1.9272161013074882</v>
+        <v>11.563296607844929</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0.47084152418396263</v>
+        <v>2.825049145103776</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>3.6801682362622291E-3</v>
+        <v>2.2081009417573374E-2</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>3.168144829477919E-4</v>
+        <v>1.9008868976867514E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>2.4241108164944683E-4</v>
+        <v>1.4544664898966809E-3</v>
       </c>
       <c r="V7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -21911,7 +21911,7 @@
       </c>
       <c r="C3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>2.7254098360655734E-5</v>
+        <v>2.7254098360655736E-4</v>
       </c>
       <c r="D3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -21935,51 +21935,51 @@
       </c>
       <c r="I3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>7.6400409836065563E-3</v>
+        <v>7.6400409836065566E-2</v>
       </c>
       <c r="J3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0.15037377049180325</v>
+        <v>1.5037377049180325</v>
       </c>
       <c r="K3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0.35771721311475413</v>
+        <v>3.5771721311475413</v>
       </c>
       <c r="L3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0.48138081967213114</v>
+        <v>4.8138081967213111</v>
       </c>
       <c r="M3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0.59039606557377045</v>
+        <v>5.9039606557377047</v>
       </c>
       <c r="N3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.70114180327868847</v>
+        <v>7.0114180327868851</v>
       </c>
       <c r="O3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0.585118237704918</v>
+        <v>5.85118237704918</v>
       </c>
       <c r="P3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0.42994487704918033</v>
+        <v>4.2994487704918036</v>
       </c>
       <c r="Q3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0.20624983606557376</v>
+        <v>2.0624983606557374</v>
       </c>
       <c r="R3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>4.3088729508196713E-2</v>
+        <v>0.4308872950819671</v>
       </c>
       <c r="S3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>2.7540983606557371E-4</v>
+        <v>2.754098360655737E-3</v>
       </c>
       <c r="T3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.2049180327868852E-4</v>
+        <v>1.2049180327868851E-3</v>
       </c>
       <c r="U3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22012,7 +22012,7 @@
       </c>
       <c r="C4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>2.7254098360655734E-5</v>
+        <v>2.7254098360655736E-4</v>
       </c>
       <c r="D4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22036,51 +22036,51 @@
       </c>
       <c r="I4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>7.6400409836065563E-3</v>
+        <v>7.6400409836065566E-2</v>
       </c>
       <c r="J4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0.15037377049180325</v>
+        <v>1.5037377049180325</v>
       </c>
       <c r="K4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0.35771721311475413</v>
+        <v>3.5771721311475413</v>
       </c>
       <c r="L4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0.48138081967213114</v>
+        <v>4.8138081967213111</v>
       </c>
       <c r="M4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0.59039606557377045</v>
+        <v>5.9039606557377047</v>
       </c>
       <c r="N4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.70114180327868847</v>
+        <v>7.0114180327868851</v>
       </c>
       <c r="O4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0.585118237704918</v>
+        <v>5.85118237704918</v>
       </c>
       <c r="P4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0.42994487704918033</v>
+        <v>4.2994487704918036</v>
       </c>
       <c r="Q4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0.20624983606557376</v>
+        <v>2.0624983606557374</v>
       </c>
       <c r="R4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>4.3088729508196713E-2</v>
+        <v>0.4308872950819671</v>
       </c>
       <c r="S4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>2.7540983606557371E-4</v>
+        <v>2.754098360655737E-3</v>
       </c>
       <c r="T4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.2049180327868852E-4</v>
+        <v>1.2049180327868851E-3</v>
       </c>
       <c r="U4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22113,7 +22113,7 @@
       </c>
       <c r="C5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>2.7254098360655734E-5</v>
+        <v>2.7254098360655736E-4</v>
       </c>
       <c r="D5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22137,51 +22137,51 @@
       </c>
       <c r="I5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>7.6400409836065563E-3</v>
+        <v>7.6400409836065566E-2</v>
       </c>
       <c r="J5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0.15037377049180325</v>
+        <v>1.5037377049180325</v>
       </c>
       <c r="K5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0.35771721311475413</v>
+        <v>3.5771721311475413</v>
       </c>
       <c r="L5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0.48138081967213114</v>
+        <v>4.8138081967213111</v>
       </c>
       <c r="M5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0.59039606557377045</v>
+        <v>5.9039606557377047</v>
       </c>
       <c r="N5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.70114180327868847</v>
+        <v>7.0114180327868851</v>
       </c>
       <c r="O5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0.585118237704918</v>
+        <v>5.85118237704918</v>
       </c>
       <c r="P5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0.42994487704918033</v>
+        <v>4.2994487704918036</v>
       </c>
       <c r="Q5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0.20624983606557376</v>
+        <v>2.0624983606557374</v>
       </c>
       <c r="R5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>4.3088729508196713E-2</v>
+        <v>0.4308872950819671</v>
       </c>
       <c r="S5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>2.7540983606557371E-4</v>
+        <v>2.754098360655737E-3</v>
       </c>
       <c r="T5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.2049180327868852E-4</v>
+        <v>1.2049180327868851E-3</v>
       </c>
       <c r="U5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22214,7 +22214,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>1.3627049180327868E-4</v>
+        <v>8.1762295081967207E-4</v>
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22238,51 +22238,51 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>3.8200204918032783E-2</v>
+        <v>0.22920122950819669</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0.75186885245901625</v>
+        <v>4.5112131147540975</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>1.7885860655737706</v>
+        <v>10.731516393442623</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>2.4069040983606556</v>
+        <v>14.441424590163935</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>2.9519803278688523</v>
+        <v>17.711881967213113</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>3.5057090163934426</v>
+        <v>21.034254098360655</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>2.92559118852459</v>
+        <v>17.553547131147539</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>2.1497243852459018</v>
+        <v>12.898346311475409</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>1.0312491803278687</v>
+        <v>6.1874950819672128</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0.21544364754098355</v>
+        <v>1.2926618852459013</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.3770491803278685E-3</v>
+        <v>8.2622950819672119E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>6.0245901639344255E-4</v>
+        <v>3.6147540983606555E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>1.3627049180327868E-4</v>
+        <v>8.1762295081967207E-4</v>
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22339,51 +22339,51 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>3.8200204918032783E-2</v>
+        <v>0.22920122950819669</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0.75186885245901625</v>
+        <v>4.5112131147540975</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>1.7885860655737706</v>
+        <v>10.731516393442623</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>2.4069040983606556</v>
+        <v>14.441424590163935</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>2.9519803278688523</v>
+        <v>17.711881967213113</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>3.5057090163934426</v>
+        <v>21.034254098360655</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>2.92559118852459</v>
+        <v>17.553547131147539</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>2.1497243852459018</v>
+        <v>12.898346311475409</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>1.0312491803278687</v>
+        <v>6.1874950819672128</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0.21544364754098355</v>
+        <v>1.2926618852459013</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.3770491803278685E-3</v>
+        <v>8.2622950819672119E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>6.0245901639344255E-4</v>
+        <v>3.6147540983606555E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22609,47 +22609,47 @@
       </c>
       <c r="I3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>8.260566945077194E-3</v>
+        <v>8.260566945077194E-2</v>
       </c>
       <c r="J3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0.18037822703113135</v>
+        <v>1.8037822703113136</v>
       </c>
       <c r="K3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0.41995460010124014</v>
+        <v>4.1995460010124015</v>
       </c>
       <c r="L3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0.60561693242217163</v>
+        <v>6.0561693242217167</v>
       </c>
       <c r="M3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0.62344801948873685</v>
+        <v>6.234480194887368</v>
       </c>
       <c r="N3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0.59197370918754733</v>
+        <v>5.919737091875473</v>
       </c>
       <c r="O3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0.46347538597823329</v>
+        <v>4.6347538597823332</v>
       </c>
       <c r="P3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0.35702126044039478</v>
+        <v>3.5702126044039479</v>
       </c>
       <c r="Q3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0.15148949633004302</v>
+        <v>1.5148949633004303</v>
       </c>
       <c r="R3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>2.6744969627942289E-2</v>
+        <v>0.26744969627942289</v>
       </c>
       <c r="S3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>4.34067324727917E-5</v>
+        <v>4.3406732472791698E-4</v>
       </c>
       <c r="T3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -22710,47 +22710,47 @@
       </c>
       <c r="I4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>8.260566945077194E-3</v>
+        <v>8.260566945077194E-2</v>
       </c>
       <c r="J4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0.18037822703113135</v>
+        <v>1.8037822703113136</v>
       </c>
       <c r="K4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0.41995460010124014</v>
+        <v>4.1995460010124015</v>
       </c>
       <c r="L4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0.60561693242217163</v>
+        <v>6.0561693242217167</v>
       </c>
       <c r="M4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0.62344801948873685</v>
+        <v>6.234480194887368</v>
       </c>
       <c r="N4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0.59197370918754733</v>
+        <v>5.919737091875473</v>
       </c>
       <c r="O4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0.46347538597823329</v>
+        <v>4.6347538597823332</v>
       </c>
       <c r="P4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0.35702126044039478</v>
+        <v>3.5702126044039479</v>
       </c>
       <c r="Q4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0.15148949633004302</v>
+        <v>1.5148949633004303</v>
       </c>
       <c r="R4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>2.6744969627942289E-2</v>
+        <v>0.26744969627942289</v>
       </c>
       <c r="S4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>4.34067324727917E-5</v>
+        <v>4.3406732472791698E-4</v>
       </c>
       <c r="T4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -22811,47 +22811,47 @@
       </c>
       <c r="I5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>8.260566945077194E-3</v>
+        <v>8.260566945077194E-2</v>
       </c>
       <c r="J5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0.18037822703113135</v>
+        <v>1.8037822703113136</v>
       </c>
       <c r="K5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0.41995460010124014</v>
+        <v>4.1995460010124015</v>
       </c>
       <c r="L5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0.60561693242217163</v>
+        <v>6.0561693242217167</v>
       </c>
       <c r="M5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0.62344801948873685</v>
+        <v>6.234480194887368</v>
       </c>
       <c r="N5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0.59197370918754733</v>
+        <v>5.919737091875473</v>
       </c>
       <c r="O5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0.46347538597823329</v>
+        <v>4.6347538597823332</v>
       </c>
       <c r="P5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0.35702126044039478</v>
+        <v>3.5702126044039479</v>
       </c>
       <c r="Q5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0.15148949633004302</v>
+        <v>1.5148949633004303</v>
       </c>
       <c r="R5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>2.6744969627942289E-2</v>
+        <v>0.26744969627942289</v>
       </c>
       <c r="S5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>4.34067324727917E-5</v>
+        <v>4.3406732472791698E-4</v>
       </c>
       <c r="T5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -22912,47 +22912,47 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>4.130283472538597E-2</v>
+        <v>0.24781700835231582</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0.90189113515565678</v>
+        <v>5.4113468109339404</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>2.0997730005062007</v>
+        <v>12.598638003037204</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>3.0280846621108584</v>
+        <v>18.16850797266515</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>3.117240097443684</v>
+        <v>18.703440584662104</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>2.9598685459377365</v>
+        <v>17.75921127562642</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>2.3173769298911666</v>
+        <v>13.904261579346999</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>1.785106302201974</v>
+        <v>10.710637813211843</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0.75744748165021514</v>
+        <v>4.5446848899012906</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.13372484813971144</v>
+        <v>0.80234908883826872</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>2.1703366236395849E-4</v>
+        <v>1.302201974183751E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -23013,47 +23013,47 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>4.130283472538597E-2</v>
+        <v>0.24781700835231582</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0.90189113515565678</v>
+        <v>5.4113468109339404</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>2.0997730005062007</v>
+        <v>12.598638003037204</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>3.0280846621108584</v>
+        <v>18.16850797266515</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>3.117240097443684</v>
+        <v>18.703440584662104</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>2.9598685459377365</v>
+        <v>17.75921127562642</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>2.3173769298911666</v>
+        <v>13.904261579346999</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>1.785106302201974</v>
+        <v>10.710637813211843</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0.75744748165021514</v>
+        <v>4.5446848899012906</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.13372484813971144</v>
+        <v>0.80234908883826872</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>2.1703366236395849E-4</v>
+        <v>1.302201974183751E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -24752,7 +24752,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24776,7 +24776,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -24787,7 +24787,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -24798,7 +24798,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -24809,7 +24809,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -24820,7 +24820,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -38416,7 +38416,7 @@
       </c>
       <c r="D3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>1.9757703209289567E-5</v>
+        <v>1.9757703209289567E-4</v>
       </c>
       <c r="E3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -38436,55 +38436,55 @@
       </c>
       <c r="I3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.1537538630337385E-2</v>
+        <v>0.11537538630337385</v>
       </c>
       <c r="J3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0.23990604233336377</v>
+        <v>2.3990604233336379</v>
       </c>
       <c r="K3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0.63584220307214034</v>
+        <v>6.3584220307214032</v>
       </c>
       <c r="L3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.79965095547225007</v>
+        <v>7.9965095547225005</v>
       </c>
       <c r="M3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.82668578495016887</v>
+        <v>8.2668578495016884</v>
       </c>
       <c r="N3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.90464583523818232</v>
+        <v>9.0464583523818227</v>
       </c>
       <c r="O3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.88120316357319173</v>
+        <v>8.8120316357319179</v>
       </c>
       <c r="P3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.7407571975861752</v>
+        <v>7.4075719758617522</v>
       </c>
       <c r="Q3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0.47409516092164211</v>
+        <v>4.7409516092164212</v>
       </c>
       <c r="R3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0.11865206409435858</v>
+        <v>1.1865206409435858</v>
       </c>
       <c r="S3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>9.274023955380818E-4</v>
+        <v>9.2740239553808189E-3</v>
       </c>
       <c r="T3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>7.8569991771052395E-5</v>
+        <v>7.8569991771052395E-4</v>
       </c>
       <c r="U3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>5.8663481759166133E-5</v>
+        <v>5.8663481759166131E-4</v>
       </c>
       <c r="V3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -38517,7 +38517,7 @@
       </c>
       <c r="D4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>1.9757703209289567E-5</v>
+        <v>1.9757703209289567E-4</v>
       </c>
       <c r="E4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -38537,55 +38537,55 @@
       </c>
       <c r="I4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.1537538630337385E-2</v>
+        <v>0.11537538630337385</v>
       </c>
       <c r="J4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0.23990604233336377</v>
+        <v>2.3990604233336379</v>
       </c>
       <c r="K4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0.63584220307214034</v>
+        <v>6.3584220307214032</v>
       </c>
       <c r="L4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.79965095547225007</v>
+        <v>7.9965095547225005</v>
       </c>
       <c r="M4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.82668578495016887</v>
+        <v>8.2668578495016884</v>
       </c>
       <c r="N4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.90464583523818232</v>
+        <v>9.0464583523818227</v>
       </c>
       <c r="O4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.88120316357319173</v>
+        <v>8.8120316357319179</v>
       </c>
       <c r="P4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.7407571975861752</v>
+        <v>7.4075719758617522</v>
       </c>
       <c r="Q4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0.47409516092164211</v>
+        <v>4.7409516092164212</v>
       </c>
       <c r="R4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0.11865206409435858</v>
+        <v>1.1865206409435858</v>
       </c>
       <c r="S4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>9.274023955380818E-4</v>
+        <v>9.2740239553808189E-3</v>
       </c>
       <c r="T4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>7.8569991771052395E-5</v>
+        <v>7.8569991771052395E-4</v>
       </c>
       <c r="U4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>5.8663481759166133E-5</v>
+        <v>5.8663481759166131E-4</v>
       </c>
       <c r="V4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -38618,7 +38618,7 @@
       </c>
       <c r="D5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>1.9757703209289567E-5</v>
+        <v>1.9757703209289567E-4</v>
       </c>
       <c r="E5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -38638,55 +38638,55 @@
       </c>
       <c r="I5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.1537538630337385E-2</v>
+        <v>0.11537538630337385</v>
       </c>
       <c r="J5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0.23990604233336377</v>
+        <v>2.3990604233336379</v>
       </c>
       <c r="K5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0.63584220307214034</v>
+        <v>6.3584220307214032</v>
       </c>
       <c r="L5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.79965095547225007</v>
+        <v>7.9965095547225005</v>
       </c>
       <c r="M5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.82668578495016887</v>
+        <v>8.2668578495016884</v>
       </c>
       <c r="N5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.90464583523818232</v>
+        <v>9.0464583523818227</v>
       </c>
       <c r="O5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.88120316357319173</v>
+        <v>8.8120316357319179</v>
       </c>
       <c r="P5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.7407571975861752</v>
+        <v>7.4075719758617522</v>
       </c>
       <c r="Q5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0.47409516092164211</v>
+        <v>4.7409516092164212</v>
       </c>
       <c r="R5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0.11865206409435858</v>
+        <v>1.1865206409435858</v>
       </c>
       <c r="S5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>9.274023955380818E-4</v>
+        <v>9.2740239553808189E-3</v>
       </c>
       <c r="T5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>7.8569991771052395E-5</v>
+        <v>7.8569991771052395E-4</v>
       </c>
       <c r="U5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>5.8663481759166133E-5</v>
+        <v>5.8663481759166131E-4</v>
       </c>
       <c r="V5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -38719,7 +38719,7 @@
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>9.8788516046447833E-5</v>
+        <v>5.9273109627868705E-4</v>
       </c>
       <c r="E6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -38739,55 +38739,55 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>5.7687693151686925E-2</v>
+        <v>0.34612615891012155</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>1.1995302116668189</v>
+        <v>7.1971812700009128</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>3.1792110153607016</v>
+        <v>19.07526609216421</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>3.9982547773612502</v>
+        <v>23.989528664167501</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>4.1334289247508442</v>
+        <v>24.800573548505067</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>4.5232291761909114</v>
+        <v>27.139375057145468</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>4.406015817865959</v>
+        <v>26.436094907195752</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>3.7037859879308761</v>
+        <v>22.222715927585256</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>2.3704758046082106</v>
+        <v>14.222854827649263</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0.59326032047179289</v>
+        <v>3.5595619228307571</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>4.6370119776904094E-3</v>
+        <v>2.7822071866142453E-2</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>3.9284995885526197E-4</v>
+        <v>2.357099753131572E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>2.9331740879583065E-4</v>
+        <v>1.759904452774984E-3</v>
       </c>
       <c r="V6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -38820,7 +38820,7 @@
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>9.8788516046447833E-5</v>
+        <v>5.9273109627868705E-4</v>
       </c>
       <c r="E7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -38840,55 +38840,55 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>5.7687693151686925E-2</v>
+        <v>0.34612615891012155</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>1.1995302116668189</v>
+        <v>7.1971812700009128</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>3.1792110153607016</v>
+        <v>19.07526609216421</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>3.9982547773612502</v>
+        <v>23.989528664167501</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>4.1334289247508442</v>
+        <v>24.800573548505067</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>4.5232291761909114</v>
+        <v>27.139375057145468</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>4.406015817865959</v>
+        <v>26.436094907195752</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>3.7037859879308761</v>
+        <v>22.222715927585256</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>2.3704758046082106</v>
+        <v>14.222854827649263</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0.59326032047179289</v>
+        <v>3.5595619228307571</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>4.6370119776904094E-3</v>
+        <v>2.7822071866142453E-2</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>3.9284995885526197E-4</v>
+        <v>2.357099753131572E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>2.9331740879583065E-4</v>
+        <v>1.759904452774984E-3</v>
       </c>
       <c r="V7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -39167,7 +39167,7 @@
       </c>
       <c r="C3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>3.4612704918032786E-5</v>
+        <v>3.4612704918032789E-4</v>
       </c>
       <c r="D3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -39191,51 +39191,51 @@
       </c>
       <c r="I3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>9.9320532786885234E-3</v>
+        <v>9.9320532786885241E-2</v>
       </c>
       <c r="J3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0.19398216393442622</v>
+        <v>1.9398216393442622</v>
       </c>
       <c r="K3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0.46145520491803282</v>
+        <v>4.614552049180328</v>
       </c>
       <c r="L3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.61135364098360656</v>
+        <v>6.1135364098360654</v>
       </c>
       <c r="M3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.76751488524590161</v>
+        <v>7.6751488524590163</v>
       </c>
       <c r="N3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.91148434426229497</v>
+        <v>9.1148434426229503</v>
       </c>
       <c r="O3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.7606537090163934</v>
+        <v>7.6065370901639344</v>
       </c>
       <c r="P3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.52453274999999999</v>
+        <v>5.2453275000000001</v>
       </c>
       <c r="Q3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0.26193729180327868</v>
+        <v>2.6193729180327869</v>
       </c>
       <c r="R3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>5.5153573770491793E-2</v>
+        <v>0.55153573770491793</v>
       </c>
       <c r="S3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>3.3324590163934416E-4</v>
+        <v>3.3324590163934416E-3</v>
       </c>
       <c r="T3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.47E-4</v>
+        <v>1.47E-3</v>
       </c>
       <c r="U3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -39268,7 +39268,7 @@
       </c>
       <c r="C4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>3.4612704918032786E-5</v>
+        <v>3.4612704918032789E-4</v>
       </c>
       <c r="D4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -39292,51 +39292,51 @@
       </c>
       <c r="I4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>9.9320532786885234E-3</v>
+        <v>9.9320532786885241E-2</v>
       </c>
       <c r="J4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0.19398216393442622</v>
+        <v>1.9398216393442622</v>
       </c>
       <c r="K4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0.46145520491803282</v>
+        <v>4.614552049180328</v>
       </c>
       <c r="L4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.61135364098360656</v>
+        <v>6.1135364098360654</v>
       </c>
       <c r="M4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.76751488524590161</v>
+        <v>7.6751488524590163</v>
       </c>
       <c r="N4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.91148434426229497</v>
+        <v>9.1148434426229503</v>
       </c>
       <c r="O4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.7606537090163934</v>
+        <v>7.6065370901639344</v>
       </c>
       <c r="P4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.52453274999999999</v>
+        <v>5.2453275000000001</v>
       </c>
       <c r="Q4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0.26193729180327868</v>
+        <v>2.6193729180327869</v>
       </c>
       <c r="R4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>5.5153573770491793E-2</v>
+        <v>0.55153573770491793</v>
       </c>
       <c r="S4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>3.3324590163934416E-4</v>
+        <v>3.3324590163934416E-3</v>
       </c>
       <c r="T4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.47E-4</v>
+        <v>1.47E-3</v>
       </c>
       <c r="U4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -39369,7 +39369,7 @@
       </c>
       <c r="C5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>3.4612704918032786E-5</v>
+        <v>3.4612704918032789E-4</v>
       </c>
       <c r="D5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -39393,51 +39393,51 @@
       </c>
       <c r="I5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>9.9320532786885234E-3</v>
+        <v>9.9320532786885241E-2</v>
       </c>
       <c r="J5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0.19398216393442622</v>
+        <v>1.9398216393442622</v>
       </c>
       <c r="K5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0.46145520491803282</v>
+        <v>4.614552049180328</v>
       </c>
       <c r="L5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.61135364098360656</v>
+        <v>6.1135364098360654</v>
       </c>
       <c r="M5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.76751488524590161</v>
+        <v>7.6751488524590163</v>
       </c>
       <c r="N5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.91148434426229497</v>
+        <v>9.1148434426229503</v>
       </c>
       <c r="O5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.7606537090163934</v>
+        <v>7.6065370901639344</v>
       </c>
       <c r="P5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.52453274999999999</v>
+        <v>5.2453275000000001</v>
       </c>
       <c r="Q5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0.26193729180327868</v>
+        <v>2.6193729180327869</v>
       </c>
       <c r="R5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>5.5153573770491793E-2</v>
+        <v>0.55153573770491793</v>
       </c>
       <c r="S5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>3.3324590163934416E-4</v>
+        <v>3.3324590163934416E-3</v>
       </c>
       <c r="T5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.47E-4</v>
+        <v>1.47E-3</v>
       </c>
       <c r="U5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -39470,7 +39470,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.7306352459016394E-4</v>
+        <v>1.0383811475409837E-3</v>
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -39494,51 +39494,51 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>4.966026639344262E-2</v>
+        <v>0.29796159836065572</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0.96991081967213111</v>
+        <v>5.8194649180327866</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>2.307276024590164</v>
+        <v>13.843656147540985</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>3.0567682049180327</v>
+        <v>18.340609229508196</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>3.8375744262295082</v>
+        <v>23.025446557377048</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>4.5574217213114752</v>
+        <v>27.344530327868849</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>3.8032685450819672</v>
+        <v>22.819611270491801</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>2.6226637500000001</v>
+        <v>15.7359825</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>1.3096864590163935</v>
+        <v>7.8581187540983608</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0.27576786885245896</v>
+        <v>1.6546072131147538</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.6662295081967208E-3</v>
+        <v>9.9973770491803247E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>7.3499999999999998E-4</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -39571,7 +39571,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.7306352459016394E-4</v>
+        <v>1.0383811475409837E-3</v>
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -39595,51 +39595,51 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>4.966026639344262E-2</v>
+        <v>0.29796159836065572</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0.96991081967213111</v>
+        <v>5.8194649180327866</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>2.307276024590164</v>
+        <v>13.843656147540985</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>3.0567682049180327</v>
+        <v>18.340609229508196</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>3.8375744262295082</v>
+        <v>23.025446557377048</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>4.5574217213114752</v>
+        <v>27.344530327868849</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>3.8032685450819672</v>
+        <v>22.819611270491801</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>2.6226637500000001</v>
+        <v>15.7359825</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>1.3096864590163935</v>
+        <v>7.8581187540983608</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0.27576786885245896</v>
+        <v>1.6546072131147538</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.6662295081967208E-3</v>
+        <v>9.9973770491803247E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>7.3499999999999998E-4</v>
+        <v>4.4099999999999999E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -39865,47 +39865,47 @@
       </c>
       <c r="I3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>1.024310301189572E-2</v>
+        <v>0.10243103011895721</v>
       </c>
       <c r="J3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0.22186521924829156</v>
+        <v>2.2186521924829155</v>
       </c>
       <c r="K3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0.52074370412553772</v>
+        <v>5.2074370412553774</v>
       </c>
       <c r="L3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.769133504176158</v>
+        <v>7.6913350417615796</v>
       </c>
       <c r="M3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.80424794514047049</v>
+        <v>8.0424794514047058</v>
       </c>
       <c r="N3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.71036845102505675</v>
+        <v>7.1036845102505675</v>
       </c>
       <c r="O3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.57007472475322696</v>
+        <v>5.70074724753227</v>
       </c>
       <c r="P3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.45698721336370535</v>
+        <v>4.5698721336370536</v>
       </c>
       <c r="Q3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0.1954214502657555</v>
+        <v>1.954214502657555</v>
       </c>
       <c r="R3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>3.4501010820045551E-2</v>
+        <v>0.34501010820045552</v>
       </c>
       <c r="S3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>5.642875221462921E-5</v>
+        <v>5.6428752214629215E-4</v>
       </c>
       <c r="T3" s="7">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -39966,47 +39966,47 @@
       </c>
       <c r="I4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>1.024310301189572E-2</v>
+        <v>0.10243103011895721</v>
       </c>
       <c r="J4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0.22186521924829156</v>
+        <v>2.2186521924829155</v>
       </c>
       <c r="K4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0.52074370412553772</v>
+        <v>5.2074370412553774</v>
       </c>
       <c r="L4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.769133504176158</v>
+        <v>7.6913350417615796</v>
       </c>
       <c r="M4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.80424794514047049</v>
+        <v>8.0424794514047058</v>
       </c>
       <c r="N4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.71036845102505675</v>
+        <v>7.1036845102505675</v>
       </c>
       <c r="O4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.57007472475322696</v>
+        <v>5.70074724753227</v>
       </c>
       <c r="P4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.45698721336370535</v>
+        <v>4.5698721336370536</v>
       </c>
       <c r="Q4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0.1954214502657555</v>
+        <v>1.954214502657555</v>
       </c>
       <c r="R4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>3.4501010820045551E-2</v>
+        <v>0.34501010820045552</v>
       </c>
       <c r="S4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>5.642875221462921E-5</v>
+        <v>5.6428752214629215E-4</v>
       </c>
       <c r="T4" s="7">
         <f>VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -40067,47 +40067,47 @@
       </c>
       <c r="I5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>1.024310301189572E-2</v>
+        <v>0.10243103011895721</v>
       </c>
       <c r="J5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0.22186521924829156</v>
+        <v>2.2186521924829155</v>
       </c>
       <c r="K5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0.52074370412553772</v>
+        <v>5.2074370412553774</v>
       </c>
       <c r="L5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.769133504176158</v>
+        <v>7.6913350417615796</v>
       </c>
       <c r="M5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.80424794514047049</v>
+        <v>8.0424794514047058</v>
       </c>
       <c r="N5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.71036845102505675</v>
+        <v>7.1036845102505675</v>
       </c>
       <c r="O5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.57007472475322696</v>
+        <v>5.70074724753227</v>
       </c>
       <c r="P5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.45698721336370535</v>
+        <v>4.5698721336370536</v>
       </c>
       <c r="Q5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0.1954214502657555</v>
+        <v>1.954214502657555</v>
       </c>
       <c r="R5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>3.4501010820045551E-2</v>
+        <v>0.34501010820045552</v>
       </c>
       <c r="S5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>5.642875221462921E-5</v>
+        <v>5.6428752214629215E-4</v>
       </c>
       <c r="T5" s="7">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -40168,47 +40168,47 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>5.1215515059478606E-2</v>
+        <v>0.30729309035687163</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>1.1093260962414577</v>
+        <v>6.6559565774487464</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>2.6037185206276887</v>
+        <v>15.622311123766131</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>3.8456675208807898</v>
+        <v>23.074005125284739</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>4.0212397257023529</v>
+        <v>24.127438354214114</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>3.5518422551252837</v>
+        <v>21.311053530751703</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>2.850373623766135</v>
+        <v>17.10224174259681</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>2.2849360668185268</v>
+        <v>13.709616400911161</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0.97710725132877752</v>
+        <v>5.8626435079726651</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0.17250505410022776</v>
+        <v>1.0350303246013666</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>2.8214376107314607E-4</v>
+        <v>1.6928625664388763E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -40269,47 +40269,47 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>5.1215515059478606E-2</v>
+        <v>0.30729309035687163</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>1.1093260962414577</v>
+        <v>6.6559565774487464</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>2.6037185206276887</v>
+        <v>15.622311123766131</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>3.8456675208807898</v>
+        <v>23.074005125284739</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>4.0212397257023529</v>
+        <v>24.127438354214114</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>3.5518422551252837</v>
+        <v>21.311053530751703</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>2.850373623766135</v>
+        <v>17.10224174259681</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>2.2849360668185268</v>
+        <v>13.709616400911161</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0.97710725132877752</v>
+        <v>5.8626435079726651</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0.17250505410022776</v>
+        <v>1.0350303246013666</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>2.8214376107314607E-4</v>
+        <v>1.6928625664388763E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>

--- a/data/IEEE_9/ieee18/ieee18_2030.xlsx
+++ b/data/IEEE_9/ieee18/ieee18_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C48326A-77A8-4089-A2FC-DA4F4AD51741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E10B78-1DBE-4E26-AC43-AD45D60235B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2490" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15180" yWindow="2745" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>4.7042150498308486E-4</v>
+        <v>3.1361433665538991E-4</v>
       </c>
       <c r="E6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21564,55 +21564,55 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.28605467678522439</v>
+        <v>0.19070311785681626</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>5.667071866142452</v>
+        <v>3.7780479107616345</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>14.78702797842187</v>
+        <v>9.8580186522812454</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>18.453483587821154</v>
+        <v>12.302322391880768</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>20.496341775624025</v>
+        <v>13.664227850416015</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>20.876442351650361</v>
+        <v>13.917628234433575</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>20.49309682728353</v>
+        <v>13.662064551522352</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>17.498201517783667</v>
+        <v>11.665467678522445</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>11.563296607844929</v>
+        <v>7.7088644052299529</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>2.825049145103776</v>
+        <v>1.8833660967358505</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>2.2081009417573374E-2</v>
+        <v>1.4720672945048916E-2</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>1.9008868976867514E-3</v>
+        <v>1.2672579317911676E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>1.4544664898966809E-3</v>
+        <v>9.6964432659778731E-4</v>
       </c>
       <c r="V6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -21645,7 +21645,7 @@
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>4.7042150498308486E-4</v>
+        <v>3.1361433665538991E-4</v>
       </c>
       <c r="E7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21665,55 +21665,55 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.28605467678522439</v>
+        <v>0.19070311785681626</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>5.667071866142452</v>
+        <v>3.7780479107616345</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>14.78702797842187</v>
+        <v>9.8580186522812454</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>18.453483587821154</v>
+        <v>12.302322391880768</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>20.496341775624025</v>
+        <v>13.664227850416015</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>20.876442351650361</v>
+        <v>13.917628234433575</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>20.49309682728353</v>
+        <v>13.662064551522352</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>17.498201517783667</v>
+        <v>11.665467678522445</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>11.563296607844929</v>
+        <v>7.7088644052299529</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>2.825049145103776</v>
+        <v>1.8833660967358505</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>2.2081009417573374E-2</v>
+        <v>1.4720672945048916E-2</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>1.9008868976867514E-3</v>
+        <v>1.2672579317911676E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>1.4544664898966809E-3</v>
+        <v>9.6964432659778731E-4</v>
       </c>
       <c r="V7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -22214,7 +22214,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>8.1762295081967207E-4</v>
+        <v>5.4508196721311472E-4</v>
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22238,51 +22238,51 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.22920122950819669</v>
+        <v>0.15280081967213113</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>4.5112131147540975</v>
+        <v>3.007475409836065</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>10.731516393442623</v>
+        <v>7.1543442622950826</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>14.441424590163935</v>
+        <v>9.6276163934426222</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>17.711881967213113</v>
+        <v>11.807921311475409</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>21.034254098360655</v>
+        <v>14.02283606557377</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>17.553547131147539</v>
+        <v>11.70236475409836</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>12.898346311475409</v>
+        <v>8.5988975409836073</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>6.1874950819672128</v>
+        <v>4.1249967213114749</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.2926618852459013</v>
+        <v>0.86177459016393421</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>8.2622950819672119E-3</v>
+        <v>5.508196721311474E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>3.6147540983606555E-3</v>
+        <v>2.4098360655737702E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>8.1762295081967207E-4</v>
+        <v>5.4508196721311472E-4</v>
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22339,51 +22339,51 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.22920122950819669</v>
+        <v>0.15280081967213113</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>4.5112131147540975</v>
+        <v>3.007475409836065</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>10.731516393442623</v>
+        <v>7.1543442622950826</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>14.441424590163935</v>
+        <v>9.6276163934426222</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>17.711881967213113</v>
+        <v>11.807921311475409</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>21.034254098360655</v>
+        <v>14.02283606557377</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>17.553547131147539</v>
+        <v>11.70236475409836</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>12.898346311475409</v>
+        <v>8.5988975409836073</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>6.1874950819672128</v>
+        <v>4.1249967213114749</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.2926618852459013</v>
+        <v>0.86177459016393421</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>8.2622950819672119E-3</v>
+        <v>5.508196721311474E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>3.6147540983606555E-3</v>
+        <v>2.4098360655737702E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22912,47 +22912,47 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.24781700835231582</v>
+        <v>0.16521133890154388</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>5.4113468109339404</v>
+        <v>3.6075645406226271</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>12.598638003037204</v>
+        <v>8.399092002024803</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>18.16850797266515</v>
+        <v>12.112338648443433</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>18.703440584662104</v>
+        <v>12.468960389774736</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>17.75921127562642</v>
+        <v>11.839474183750946</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>13.904261579346999</v>
+        <v>9.2695077195646665</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>10.710637813211843</v>
+        <v>7.1404252088078959</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>4.5446848899012906</v>
+        <v>3.0297899266008606</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.80234908883826872</v>
+        <v>0.53489939255884578</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.302201974183751E-3</v>
+        <v>8.6813464945583395E-4</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -23013,47 +23013,47 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.24781700835231582</v>
+        <v>0.16521133890154388</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>5.4113468109339404</v>
+        <v>3.6075645406226271</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>12.598638003037204</v>
+        <v>8.399092002024803</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>18.16850797266515</v>
+        <v>12.112338648443433</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>18.703440584662104</v>
+        <v>12.468960389774736</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>17.75921127562642</v>
+        <v>11.839474183750946</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>13.904261579346999</v>
+        <v>9.2695077195646665</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>10.710637813211843</v>
+        <v>7.1404252088078959</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>4.5446848899012906</v>
+        <v>3.0297899266008606</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.80234908883826872</v>
+        <v>0.53489939255884578</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.302201974183751E-3</v>
+        <v>8.6813464945583395E-4</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -24751,8 +24751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24809,7 +24809,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -24820,7 +24820,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -38719,7 +38719,7 @@
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>5.9273109627868705E-4</v>
+        <v>3.9515406418579133E-4</v>
       </c>
       <c r="E6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -38739,55 +38739,55 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.34612615891012155</v>
+        <v>0.2307507726067477</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>7.1971812700009128</v>
+        <v>4.7981208466672758</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>19.07526609216421</v>
+        <v>12.716844061442806</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>23.989528664167501</v>
+        <v>15.993019109445001</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>24.800573548505067</v>
+        <v>16.533715699003377</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>27.139375057145468</v>
+        <v>18.092916704763645</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>26.436094907195752</v>
+        <v>17.624063271463836</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>22.222715927585256</v>
+        <v>14.815143951723504</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>14.222854827649263</v>
+        <v>9.4819032184328425</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>3.5595619228307571</v>
+        <v>2.3730412818871716</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>2.7822071866142453E-2</v>
+        <v>1.8548047910761638E-2</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>2.357099753131572E-3</v>
+        <v>1.5713998354210479E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>1.759904452774984E-3</v>
+        <v>1.1732696351833226E-3</v>
       </c>
       <c r="V6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -38820,7 +38820,7 @@
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>5.9273109627868705E-4</v>
+        <v>3.9515406418579133E-4</v>
       </c>
       <c r="E7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -38840,55 +38840,55 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.34612615891012155</v>
+        <v>0.2307507726067477</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>7.1971812700009128</v>
+        <v>4.7981208466672758</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>19.07526609216421</v>
+        <v>12.716844061442806</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>23.989528664167501</v>
+        <v>15.993019109445001</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>24.800573548505067</v>
+        <v>16.533715699003377</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>27.139375057145468</v>
+        <v>18.092916704763645</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>26.436094907195752</v>
+        <v>17.624063271463836</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>22.222715927585256</v>
+        <v>14.815143951723504</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>14.222854827649263</v>
+        <v>9.4819032184328425</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>3.5595619228307571</v>
+        <v>2.3730412818871716</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>2.7822071866142453E-2</v>
+        <v>1.8548047910761638E-2</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>2.357099753131572E-3</v>
+        <v>1.5713998354210479E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>1.759904452774984E-3</v>
+        <v>1.1732696351833226E-3</v>
       </c>
       <c r="V7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -39470,7 +39470,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.0383811475409837E-3</v>
+        <v>6.9225409836065578E-4</v>
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -39494,51 +39494,51 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.29796159836065572</v>
+        <v>0.19864106557377048</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>5.8194649180327866</v>
+        <v>3.8796432786885244</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>13.843656147540985</v>
+        <v>9.229104098360656</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>18.340609229508196</v>
+        <v>12.227072819672131</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>23.025446557377048</v>
+        <v>15.350297704918033</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>27.344530327868849</v>
+        <v>18.229686885245901</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>22.819611270491801</v>
+        <v>15.213074180327869</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>15.7359825</v>
+        <v>10.490655</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>7.8581187540983608</v>
+        <v>5.2387458360655739</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.6546072131147538</v>
+        <v>1.1030714754098359</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>9.9973770491803247E-3</v>
+        <v>6.6649180327868832E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>4.4099999999999999E-3</v>
+        <v>2.9399999999999999E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -39571,7 +39571,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.0383811475409837E-3</v>
+        <v>6.9225409836065578E-4</v>
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -39595,51 +39595,51 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.29796159836065572</v>
+        <v>0.19864106557377048</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>5.8194649180327866</v>
+        <v>3.8796432786885244</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>13.843656147540985</v>
+        <v>9.229104098360656</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>18.340609229508196</v>
+        <v>12.227072819672131</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>23.025446557377048</v>
+        <v>15.350297704918033</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>27.344530327868849</v>
+        <v>18.229686885245901</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>22.819611270491801</v>
+        <v>15.213074180327869</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>15.7359825</v>
+        <v>10.490655</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>7.8581187540983608</v>
+        <v>5.2387458360655739</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.6546072131147538</v>
+        <v>1.1030714754098359</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>9.9973770491803247E-3</v>
+        <v>6.6649180327868832E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>4.4099999999999999E-3</v>
+        <v>2.9399999999999999E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -40168,47 +40168,47 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.30729309035687163</v>
+        <v>0.20486206023791442</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>6.6559565774487464</v>
+        <v>4.4373043849658309</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>15.622311123766131</v>
+        <v>10.414874082510755</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>23.074005125284739</v>
+        <v>15.382670083523159</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>24.127438354214114</v>
+        <v>16.084958902809412</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>21.311053530751703</v>
+        <v>14.207369020501135</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>17.10224174259681</v>
+        <v>11.40149449506454</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>13.709616400911161</v>
+        <v>9.1397442672741072</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>5.8626435079726651</v>
+        <v>3.9084290053151101</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.0350303246013666</v>
+        <v>0.69002021640091105</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.6928625664388763E-3</v>
+        <v>1.1285750442925843E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -40269,47 +40269,47 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.30729309035687163</v>
+        <v>0.20486206023791442</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>6.6559565774487464</v>
+        <v>4.4373043849658309</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>15.622311123766131</v>
+        <v>10.414874082510755</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>23.074005125284739</v>
+        <v>15.382670083523159</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>24.127438354214114</v>
+        <v>16.084958902809412</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>21.311053530751703</v>
+        <v>14.207369020501135</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>17.10224174259681</v>
+        <v>11.40149449506454</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>13.709616400911161</v>
+        <v>9.1397442672741072</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>5.8626435079726651</v>
+        <v>3.9084290053151101</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.0350303246013666</v>
+        <v>0.69002021640091105</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.6928625664388763E-3</v>
+        <v>1.1285750442925843E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -42561,7 +42561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90792FFD-F8B0-4F11-BB33-84C7B9CBA7C9}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
